--- a/output/1Y_P45_KFSDIV.xlsx
+++ b/output/1Y_P45_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>14.6447</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>15.486</v>
       </c>
       <c r="C3" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D3" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E3" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="F3" s="1">
-        <v>645.7445</v>
+        <v>644.4545000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>10574.474</v>
+        <v>10532.2339</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10574.474</v>
+        <v>10532.2339</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0574</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>16.1958</v>
       </c>
       <c r="C4" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D4" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E4" s="1">
-        <v>1328.5854</v>
+        <v>1325.9319</v>
       </c>
       <c r="F4" s="1">
-        <v>617.444</v>
+        <v>616.2113000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>21517.3711</v>
+        <v>21431.5679</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21517.3711</v>
+        <v>21431.5679</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.0536</v>
+        <v>15.0837</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0458</v>
+        <v>0.0438</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>16.4264</v>
       </c>
       <c r="C5" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D5" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E5" s="1">
-        <v>1946.0295</v>
+        <v>1942.1432</v>
       </c>
       <c r="F5" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="H5" s="1">
-        <v>31966.2584</v>
+        <v>31838.7187</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31966.2584</v>
+        <v>31838.7187</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>15.416</v>
+        <v>15.4469</v>
       </c>
       <c r="M5" s="1">
         <v>0.75</v>
       </c>
       <c r="N5" s="1">
-        <v>896.7952</v>
+        <v>895.004</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9103.2048</v>
+        <v>-9104.995999999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0142</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>17.107</v>
       </c>
       <c r="C6" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D6" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E6" s="1">
-        <v>2554.8056</v>
+        <v>2549.7025</v>
       </c>
       <c r="F6" s="1">
-        <v>591.1088999999999</v>
+        <v>589.913</v>
       </c>
       <c r="H6" s="1">
-        <v>43705.0591</v>
+        <v>43530.56</v>
       </c>
       <c r="I6" s="1">
-        <v>896.7952</v>
+        <v>895.004</v>
       </c>
       <c r="J6" s="1">
-        <v>44601.8542</v>
+        <v>44425.564</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>15.6568</v>
+        <v>15.6881</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10112.0994</v>
+        <v>-10111.8755</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.06279999999999999</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>16.8894</v>
       </c>
       <c r="C7" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D7" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E7" s="1">
-        <v>3145.9144</v>
+        <v>3139.6154</v>
       </c>
       <c r="F7" s="1">
-        <v>598.7246</v>
+        <v>597.5155999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>53132.2929</v>
+        <v>52920.102</v>
       </c>
       <c r="I7" s="1">
-        <v>784.6958</v>
+        <v>783.1285</v>
       </c>
       <c r="J7" s="1">
-        <v>53916.9886</v>
+        <v>53703.2305</v>
       </c>
       <c r="K7" s="1">
-        <v>50112.0994</v>
+        <v>50111.8755</v>
       </c>
       <c r="L7" s="1">
-        <v>15.9293</v>
+        <v>15.9612</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2299.325</v>
+        <v>2294.7322</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7812.7744</v>
+        <v>-7817.1433</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0125</v>
+        <v>-0.0133</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>16.4004</v>
       </c>
       <c r="C8" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D8" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E8" s="1">
-        <v>3744.6391</v>
+        <v>3737.131</v>
       </c>
       <c r="F8" s="1">
-        <v>639.9429</v>
+        <v>638.6016</v>
       </c>
       <c r="H8" s="1">
-        <v>61413.5784</v>
+        <v>61167.8655</v>
       </c>
       <c r="I8" s="1">
-        <v>2971.9214</v>
+        <v>2965.9852</v>
       </c>
       <c r="J8" s="1">
-        <v>64385.4998</v>
+        <v>64133.8508</v>
       </c>
       <c r="K8" s="1">
-        <v>60224.1988</v>
+        <v>60223.751</v>
       </c>
       <c r="L8" s="1">
-        <v>16.0828</v>
+        <v>16.115</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10495.3202</v>
+        <v>-10494.3309</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0073</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>15.3877</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E9" s="1">
-        <v>4384.582</v>
+        <v>4375.7326</v>
       </c>
       <c r="F9" s="1">
-        <v>682.0590999999999</v>
+        <v>680.6324</v>
       </c>
       <c r="H9" s="1">
-        <v>67468.6324</v>
+        <v>67197.6874</v>
       </c>
       <c r="I9" s="1">
-        <v>2476.6012</v>
+        <v>2471.6544</v>
       </c>
       <c r="J9" s="1">
-        <v>69945.23360000001</v>
+        <v>69669.3417</v>
       </c>
       <c r="K9" s="1">
-        <v>70719.519</v>
+        <v>70718.0819</v>
       </c>
       <c r="L9" s="1">
-        <v>16.1291</v>
+        <v>16.1614</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10495.3202</v>
+        <v>-10494.3309</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0597</v>
+        <v>-0.0602</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>14.6367</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E10" s="1">
-        <v>5066.6411</v>
+        <v>5056.365</v>
       </c>
       <c r="F10" s="1">
-        <v>717.0551</v>
+        <v>715.5551</v>
       </c>
       <c r="H10" s="1">
-        <v>74158.90519999999</v>
+        <v>73860.34570000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1981.2809</v>
+        <v>1977.3235</v>
       </c>
       <c r="J10" s="1">
-        <v>76140.18610000001</v>
+        <v>75837.6692</v>
       </c>
       <c r="K10" s="1">
-        <v>81214.83930000001</v>
+        <v>81212.41280000001</v>
       </c>
       <c r="L10" s="1">
-        <v>16.0293</v>
+        <v>16.0614</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10495.3202</v>
+        <v>-10494.3309</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0476</v>
+        <v>-0.0481</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>13.0061</v>
       </c>
       <c r="C11" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D11" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E11" s="1">
-        <v>5783.6962</v>
+        <v>5771.9201</v>
       </c>
       <c r="F11" s="1">
-        <v>806.9537</v>
+        <v>805.2616</v>
       </c>
       <c r="H11" s="1">
-        <v>75223.3305</v>
+        <v>74920.0996</v>
       </c>
       <c r="I11" s="1">
-        <v>1485.9607</v>
+        <v>1482.9926</v>
       </c>
       <c r="J11" s="1">
-        <v>76709.29120000001</v>
+        <v>76403.0922</v>
       </c>
       <c r="K11" s="1">
-        <v>91710.15949999999</v>
+        <v>91706.7436</v>
       </c>
       <c r="L11" s="1">
-        <v>15.8567</v>
+        <v>15.8884</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2279.9885</v>
+        <v>2275.3642</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8215.3318</v>
+        <v>-8218.9666</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.1095</v>
+        <v>-0.1099</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>13.835</v>
       </c>
       <c r="C12" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D12" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E12" s="1">
-        <v>6590.6498</v>
+        <v>6577.1817</v>
       </c>
       <c r="F12" s="1">
-        <v>841.0057</v>
+        <v>839.0871</v>
       </c>
       <c r="H12" s="1">
-        <v>91181.6404</v>
+        <v>90813.121</v>
       </c>
       <c r="I12" s="1">
-        <v>3270.6289</v>
+        <v>3264.026</v>
       </c>
       <c r="J12" s="1">
-        <v>94452.2693</v>
+        <v>94077.147</v>
       </c>
       <c r="K12" s="1">
-        <v>102205.4797</v>
+        <v>102201.0745</v>
       </c>
       <c r="L12" s="1">
-        <v>15.5076</v>
+        <v>15.5387</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11635.3145</v>
+        <v>-11632.013</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0893</v>
+        <v>0.0888</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>14.4216</v>
       </c>
       <c r="C13" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D13" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E13" s="1">
-        <v>7431.6556</v>
+        <v>7416.2688</v>
       </c>
       <c r="F13" s="1">
-        <v>806.7978000000001</v>
+        <v>804.9557</v>
       </c>
       <c r="H13" s="1">
-        <v>107176.364</v>
+        <v>106740.874</v>
       </c>
       <c r="I13" s="1">
-        <v>1635.3145</v>
+        <v>1632.013</v>
       </c>
       <c r="J13" s="1">
-        <v>108811.6785</v>
+        <v>108372.887</v>
       </c>
       <c r="K13" s="1">
-        <v>113840.7942</v>
+        <v>113833.0875</v>
       </c>
       <c r="L13" s="1">
-        <v>15.3184</v>
+        <v>15.3491</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11635.3145</v>
+        <v>-11632.013</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0417</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>13.2404</v>
       </c>
       <c r="C14" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D14" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E14" s="1">
-        <v>8238.453299999999</v>
+        <v>8221.2246</v>
       </c>
       <c r="F14" s="1">
-        <v>-8238.453299999999</v>
+        <v>-8221.2246</v>
       </c>
       <c r="H14" s="1">
-        <v>109080.4174</v>
+        <v>108634.4394</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>109080.4174</v>
+        <v>108634.4394</v>
       </c>
       <c r="K14" s="1">
-        <v>125476.1087</v>
+        <v>125465.1005</v>
       </c>
       <c r="L14" s="1">
-        <v>15.2305</v>
+        <v>15.2611</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>2675.396</v>
+        <v>2669.8568</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111755.8134</v>
+        <v>111304.2962</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>14.6447</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>15.486</v>
       </c>
       <c r="C3" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D3" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E3" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="F3" s="1">
-        <v>608.6482</v>
+        <v>612.6021</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10574.474</v>
+        <v>10532.2339</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10574.474</v>
+        <v>10532.2339</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9425.526</v>
+        <v>-9505.7474</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0574</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>16.1958</v>
       </c>
       <c r="C4" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D4" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E4" s="1">
-        <v>1291.4891</v>
+        <v>1294.0796</v>
       </c>
       <c r="F4" s="1">
-        <v>560.8544000000001</v>
+        <v>561.9656</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20916.5698</v>
+        <v>20916.726</v>
       </c>
       <c r="I4" s="1">
-        <v>574.474</v>
+        <v>494.2526</v>
       </c>
       <c r="J4" s="1">
-        <v>21491.0438</v>
+        <v>21410.9785</v>
       </c>
       <c r="K4" s="1">
-        <v>19425.526</v>
+        <v>19505.7474</v>
       </c>
       <c r="L4" s="1">
-        <v>15.0412</v>
+        <v>15.0731</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9083.4863</v>
+        <v>-9119.689399999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0445</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>16.4264</v>
       </c>
       <c r="C5" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D5" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E5" s="1">
-        <v>1852.3435</v>
+        <v>1856.0451</v>
       </c>
       <c r="F5" s="1">
-        <v>582.7609</v>
+        <v>583.9314000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30427.3357</v>
+        <v>30427.2616</v>
       </c>
       <c r="I5" s="1">
-        <v>1490.9878</v>
+        <v>1374.5632</v>
       </c>
       <c r="J5" s="1">
-        <v>31918.3234</v>
+        <v>31801.8248</v>
       </c>
       <c r="K5" s="1">
-        <v>28509.0122</v>
+        <v>28625.4368</v>
       </c>
       <c r="L5" s="1">
-        <v>15.3908</v>
+        <v>15.4228</v>
       </c>
       <c r="M5" s="1">
         <v>0.75</v>
       </c>
       <c r="N5" s="1">
-        <v>871.7551</v>
+        <v>873.5037</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8700.9092</v>
+        <v>-8737.599</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0136</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>17.107</v>
       </c>
       <c r="C6" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D6" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E6" s="1">
-        <v>2435.1045</v>
+        <v>2439.9766</v>
       </c>
       <c r="F6" s="1">
-        <v>487.6757</v>
+        <v>488.6584</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41657.3321</v>
+        <v>41657.2321</v>
       </c>
       <c r="I6" s="1">
-        <v>2790.0785</v>
+        <v>2636.9642</v>
       </c>
       <c r="J6" s="1">
-        <v>44447.4106</v>
+        <v>44294.1963</v>
       </c>
       <c r="K6" s="1">
-        <v>38081.6766</v>
+        <v>38236.5395</v>
       </c>
       <c r="L6" s="1">
-        <v>15.6386</v>
+        <v>15.6709</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8342.6679</v>
+        <v>-8376.241</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0603</v>
+        <v>0.0596</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>16.8894</v>
       </c>
       <c r="C7" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D7" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E7" s="1">
-        <v>2922.7801</v>
+        <v>2928.635</v>
       </c>
       <c r="F7" s="1">
-        <v>629.765</v>
+        <v>631.0128</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49363.7108</v>
+        <v>49363.9005</v>
       </c>
       <c r="I7" s="1">
-        <v>4447.4106</v>
+        <v>4260.7232</v>
       </c>
       <c r="J7" s="1">
-        <v>53811.1214</v>
+        <v>53624.6236</v>
       </c>
       <c r="K7" s="1">
-        <v>46424.3445</v>
+        <v>46612.7806</v>
       </c>
       <c r="L7" s="1">
-        <v>15.8836</v>
+        <v>15.9162</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2191.594</v>
+        <v>2195.9789</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8444.7582</v>
+        <v>-8482.777099999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0117</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>16.4004</v>
       </c>
       <c r="C8" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D8" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E8" s="1">
-        <v>3552.5451</v>
+        <v>3559.6478</v>
       </c>
       <c r="F8" s="1">
-        <v>715.6435</v>
+        <v>717.0940000000001</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58263.1607</v>
+        <v>58262.8919</v>
       </c>
       <c r="I8" s="1">
-        <v>6002.6524</v>
+        <v>5777.9461</v>
       </c>
       <c r="J8" s="1">
-        <v>64265.8131</v>
+        <v>64040.8379</v>
       </c>
       <c r="K8" s="1">
-        <v>57060.6967</v>
+        <v>57291.5365</v>
       </c>
       <c r="L8" s="1">
-        <v>16.0619</v>
+        <v>16.0947</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11736.8393</v>
+        <v>-11784.2212</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0071</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>15.3877</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E9" s="1">
-        <v>4268.1886</v>
+        <v>4276.7419</v>
       </c>
       <c r="F9" s="1">
-        <v>927.092</v>
+        <v>907.5931</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>65677.6054</v>
+        <v>65677.497</v>
       </c>
       <c r="I9" s="1">
-        <v>4265.8131</v>
+        <v>3993.7249</v>
       </c>
       <c r="J9" s="1">
-        <v>69943.4186</v>
+        <v>69671.2219</v>
       </c>
       <c r="K9" s="1">
-        <v>68797.53599999999</v>
+        <v>69075.75780000001</v>
       </c>
       <c r="L9" s="1">
-        <v>16.1187</v>
+        <v>16.1515</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-14265.8131</v>
+        <v>-13993.7249</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0582</v>
+        <v>-0.059</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>14.6367</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E10" s="1">
-        <v>5195.2806</v>
+        <v>5184.335</v>
       </c>
       <c r="F10" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>76041.7629</v>
+        <v>75729.6551</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76041.7629</v>
+        <v>75729.6551</v>
       </c>
       <c r="K10" s="1">
-        <v>83063.3492</v>
+        <v>83069.4826</v>
       </c>
       <c r="L10" s="1">
-        <v>15.9882</v>
+        <v>16.0232</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0488</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>13.0061</v>
       </c>
       <c r="C11" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D11" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E11" s="1">
-        <v>5878.4947</v>
+        <v>5866.1842</v>
       </c>
       <c r="F11" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>76456.2895</v>
+        <v>76143.6572</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>76456.2895</v>
+        <v>76143.6572</v>
       </c>
       <c r="K11" s="1">
-        <v>93063.3492</v>
+        <v>93069.4826</v>
       </c>
       <c r="L11" s="1">
-        <v>15.8312</v>
+        <v>15.8654</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2337.8762</v>
+        <v>2332.9507</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7662.1238</v>
+        <v>-7667.0493</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.1114</v>
+        <v>-0.1118</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>13.835</v>
       </c>
       <c r="C12" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D12" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E12" s="1">
-        <v>6647.3647</v>
+        <v>6633.5143</v>
       </c>
       <c r="F12" s="1">
-        <v>891.7872</v>
+        <v>889.65</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>91966.28999999999</v>
+        <v>91590.92230000001</v>
       </c>
       <c r="I12" s="1">
-        <v>2337.8762</v>
+        <v>2332.9507</v>
       </c>
       <c r="J12" s="1">
-        <v>94304.1663</v>
+        <v>93923.8731</v>
       </c>
       <c r="K12" s="1">
-        <v>103063.3492</v>
+        <v>103069.4826</v>
       </c>
       <c r="L12" s="1">
-        <v>15.5044</v>
+        <v>15.5377</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12337.8762</v>
+        <v>-12332.9507</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.09080000000000001</v>
+        <v>0.09030000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>14.4216</v>
       </c>
       <c r="C13" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D13" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E13" s="1">
-        <v>7539.1519</v>
+        <v>7523.1643</v>
       </c>
       <c r="F13" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>108726.6328</v>
+        <v>108279.3992</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108726.6328</v>
+        <v>108279.3992</v>
       </c>
       <c r="K13" s="1">
-        <v>115401.2254</v>
+        <v>115402.4334</v>
       </c>
       <c r="L13" s="1">
-        <v>15.3069</v>
+        <v>15.3396</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>13.2404</v>
       </c>
       <c r="C14" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D14" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E14" s="1">
-        <v>8232.556200000001</v>
+        <v>8215.1819</v>
       </c>
       <c r="F14" s="1">
-        <v>-8232.556200000001</v>
+        <v>-8215.1819</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>109002.3374</v>
+        <v>108554.5918</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>109002.3374</v>
+        <v>108554.5918</v>
       </c>
       <c r="K14" s="1">
-        <v>125401.2254</v>
+        <v>125402.4334</v>
       </c>
       <c r="L14" s="1">
-        <v>15.2324</v>
+        <v>15.2647</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>2714.0947</v>
+        <v>2708.3391</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111716.4321</v>
+        <v>111262.931</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0819</v>
+        <v>-0.0822</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>14.6447</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>15.486</v>
       </c>
       <c r="C3" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D3" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E3" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="F3" s="1">
-        <v>611.8769</v>
+        <v>615.8373</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10574.474</v>
+        <v>10532.2339</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10574.474</v>
+        <v>10532.2339</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9475.526</v>
+        <v>-9555.948</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0574</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>16.1958</v>
       </c>
       <c r="C4" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D4" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E4" s="1">
-        <v>1294.7178</v>
+        <v>1297.3148</v>
       </c>
       <c r="F4" s="1">
-        <v>566.9029</v>
+        <v>568.026</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20968.8612</v>
+        <v>20969.0178</v>
       </c>
       <c r="I4" s="1">
-        <v>524.474</v>
+        <v>444.052</v>
       </c>
       <c r="J4" s="1">
-        <v>21493.3353</v>
+        <v>21413.0698</v>
       </c>
       <c r="K4" s="1">
-        <v>19475.526</v>
+        <v>19555.948</v>
       </c>
       <c r="L4" s="1">
-        <v>15.0423</v>
+        <v>15.0742</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9181.4455</v>
+        <v>-9218.040300000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0447</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>16.4264</v>
       </c>
       <c r="C5" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D5" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E5" s="1">
-        <v>1861.6207</v>
+        <v>1865.3408</v>
       </c>
       <c r="F5" s="1">
-        <v>591.808</v>
+        <v>592.9965999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30579.7259</v>
+        <v>30579.6515</v>
       </c>
       <c r="I5" s="1">
-        <v>1343.0286</v>
+        <v>1226.0117</v>
       </c>
       <c r="J5" s="1">
-        <v>31922.7545</v>
+        <v>31805.6631</v>
       </c>
       <c r="K5" s="1">
-        <v>28656.9714</v>
+        <v>28773.9883</v>
       </c>
       <c r="L5" s="1">
-        <v>15.3936</v>
+        <v>15.4256</v>
       </c>
       <c r="M5" s="1">
         <v>0.75</v>
       </c>
       <c r="N5" s="1">
-        <v>873.9345</v>
+        <v>875.6875</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8847.3408</v>
+        <v>-8884.6222</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0136</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>17.107</v>
       </c>
       <c r="C6" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D6" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E6" s="1">
-        <v>2453.4287</v>
+        <v>2458.3375</v>
       </c>
       <c r="F6" s="1">
-        <v>498.7258</v>
+        <v>499.7307</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41970.8048</v>
+        <v>41970.7041</v>
       </c>
       <c r="I6" s="1">
-        <v>2495.6877</v>
+        <v>2341.3895</v>
       </c>
       <c r="J6" s="1">
-        <v>44466.4926</v>
+        <v>44312.0935</v>
       </c>
       <c r="K6" s="1">
-        <v>38378.2468</v>
+        <v>38534.298</v>
       </c>
       <c r="L6" s="1">
-        <v>15.6427</v>
+        <v>15.6749</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8531.7014</v>
+        <v>-8566.0337</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0607</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>16.8894</v>
       </c>
       <c r="C7" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D7" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E7" s="1">
-        <v>2952.1545</v>
+        <v>2958.0682</v>
       </c>
       <c r="F7" s="1">
-        <v>645.0946</v>
+        <v>646.373</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49859.8222</v>
+        <v>49860.0138</v>
       </c>
       <c r="I7" s="1">
-        <v>3963.9863</v>
+        <v>3775.3557</v>
       </c>
       <c r="J7" s="1">
-        <v>53823.8085</v>
+        <v>53635.3696</v>
       </c>
       <c r="K7" s="1">
-        <v>46909.9482</v>
+        <v>47100.3317</v>
       </c>
       <c r="L7" s="1">
-        <v>15.8901</v>
+        <v>15.9227</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2208.0858</v>
+        <v>2212.5037</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8687.1752</v>
+        <v>-8726.196</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0118</v>
+        <v>-0.0125</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>16.4004</v>
       </c>
       <c r="C8" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D8" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E8" s="1">
-        <v>3597.2491</v>
+        <v>3604.4412</v>
       </c>
       <c r="F8" s="1">
-        <v>735.4985</v>
+        <v>736.9891</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>58996.3237</v>
+        <v>58996.0515</v>
       </c>
       <c r="I8" s="1">
-        <v>5276.8111</v>
+        <v>5049.1597</v>
       </c>
       <c r="J8" s="1">
-        <v>64273.1348</v>
+        <v>64045.2112</v>
       </c>
       <c r="K8" s="1">
-        <v>57805.2093</v>
+        <v>58039.0315</v>
       </c>
       <c r="L8" s="1">
-        <v>16.0693</v>
+        <v>16.1021</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-12062.4702</v>
+        <v>-12111.1626</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.007</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>15.3877</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E9" s="1">
-        <v>4332.7476</v>
+        <v>4341.4303</v>
       </c>
       <c r="F9" s="1">
-        <v>858.76</v>
+        <v>839.1215999999999</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>66671.02039999999</v>
+        <v>66670.9103</v>
       </c>
       <c r="I9" s="1">
-        <v>3214.3409</v>
+        <v>2937.9971</v>
       </c>
       <c r="J9" s="1">
-        <v>69885.3613</v>
+        <v>69608.9075</v>
       </c>
       <c r="K9" s="1">
-        <v>69867.67939999999</v>
+        <v>70150.19409999999</v>
       </c>
       <c r="L9" s="1">
-        <v>16.1255</v>
+        <v>16.1583</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-13214.3409</v>
+        <v>-12937.9971</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0591</v>
+        <v>-0.0599</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>14.6367</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E10" s="1">
-        <v>5191.5076</v>
+        <v>5180.5519</v>
       </c>
       <c r="F10" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>75986.53909999999</v>
+        <v>75674.3939</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>75986.53909999999</v>
+        <v>75674.3939</v>
       </c>
       <c r="K10" s="1">
-        <v>83082.02039999999</v>
+        <v>83088.1912</v>
       </c>
       <c r="L10" s="1">
-        <v>16.0034</v>
+        <v>16.0385</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0488</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>13.0061</v>
       </c>
       <c r="C11" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D11" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E11" s="1">
-        <v>5874.7217</v>
+        <v>5862.4011</v>
       </c>
       <c r="F11" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>76407.2179</v>
+        <v>76094.5523</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>76407.2179</v>
+        <v>76094.5523</v>
       </c>
       <c r="K11" s="1">
-        <v>93082.02039999999</v>
+        <v>93088.1912</v>
       </c>
       <c r="L11" s="1">
-        <v>15.8445</v>
+        <v>15.8789</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2336.1784</v>
+        <v>2331.2484</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7663.8216</v>
+        <v>-7668.7516</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.1114</v>
+        <v>-0.1118</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>13.835</v>
       </c>
       <c r="C12" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D12" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E12" s="1">
-        <v>6643.5917</v>
+        <v>6629.7312</v>
       </c>
       <c r="F12" s="1">
-        <v>891.6645</v>
+        <v>889.5272</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>91914.091</v>
+        <v>91538.68799999999</v>
       </c>
       <c r="I12" s="1">
-        <v>2336.1784</v>
+        <v>2331.2484</v>
       </c>
       <c r="J12" s="1">
-        <v>94250.26949999999</v>
+        <v>93869.93640000001</v>
       </c>
       <c r="K12" s="1">
-        <v>103082.0204</v>
+        <v>103088.1912</v>
       </c>
       <c r="L12" s="1">
-        <v>15.516</v>
+        <v>15.5494</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12336.1784</v>
+        <v>-12331.2484</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.09080000000000001</v>
+        <v>0.09030000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>14.4216</v>
       </c>
       <c r="C13" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D13" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E13" s="1">
-        <v>7535.2562</v>
+        <v>7519.2584</v>
       </c>
       <c r="F13" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>108670.4507</v>
+        <v>108223.1824</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>108670.4507</v>
+        <v>108223.1824</v>
       </c>
       <c r="K13" s="1">
-        <v>115418.1988</v>
+        <v>115419.4396</v>
       </c>
       <c r="L13" s="1">
-        <v>15.3171</v>
+        <v>15.3498</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>13.2404</v>
       </c>
       <c r="C14" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D14" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E14" s="1">
-        <v>8228.6605</v>
+        <v>8211.276</v>
       </c>
       <c r="F14" s="1">
-        <v>-8228.6605</v>
+        <v>-8211.276</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108950.7569</v>
+        <v>108502.9797</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>108950.7569</v>
+        <v>108502.9797</v>
       </c>
       <c r="K14" s="1">
-        <v>125418.1988</v>
+        <v>125419.4396</v>
       </c>
       <c r="L14" s="1">
-        <v>15.2416</v>
+        <v>15.274</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>2712.6922</v>
+        <v>2706.933</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111663.4492</v>
+        <v>111209.9128</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0819</v>
+        <v>-0.0822</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>14.6447</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>15.486</v>
       </c>
       <c r="C3" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D3" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E3" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="F3" s="1">
-        <v>615.1056</v>
+        <v>619.0725</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10574.474</v>
+        <v>10532.2339</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10574.474</v>
+        <v>10532.2339</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9525.526</v>
+        <v>-9606.1486</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0574</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>16.1958</v>
       </c>
       <c r="C4" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D4" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E4" s="1">
-        <v>1297.9465</v>
+        <v>1300.55</v>
       </c>
       <c r="F4" s="1">
-        <v>572.9822</v>
+        <v>574.1174999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21021.1527</v>
+        <v>21021.3096</v>
       </c>
       <c r="I4" s="1">
-        <v>474.474</v>
+        <v>393.8514</v>
       </c>
       <c r="J4" s="1">
-        <v>21495.6267</v>
+        <v>21415.161</v>
       </c>
       <c r="K4" s="1">
-        <v>19525.526</v>
+        <v>19606.1486</v>
       </c>
       <c r="L4" s="1">
-        <v>15.0434</v>
+        <v>15.0753</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9279.9046</v>
+        <v>-9316.8932</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0448</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>16.4264</v>
       </c>
       <c r="C5" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D5" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E5" s="1">
-        <v>1870.9287</v>
+        <v>1874.6675</v>
       </c>
       <c r="F5" s="1">
-        <v>600.9464</v>
+        <v>602.1534</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30732.6233</v>
+        <v>30732.5484</v>
       </c>
       <c r="I5" s="1">
-        <v>1194.5694</v>
+        <v>1076.9582</v>
       </c>
       <c r="J5" s="1">
-        <v>31927.1926</v>
+        <v>31809.5066</v>
       </c>
       <c r="K5" s="1">
-        <v>28805.4306</v>
+        <v>28923.0418</v>
       </c>
       <c r="L5" s="1">
-        <v>15.3963</v>
+        <v>15.4284</v>
       </c>
       <c r="M5" s="1">
         <v>0.75</v>
       </c>
       <c r="N5" s="1">
-        <v>876.1138999999999</v>
+        <v>877.8712</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8995.272800000001</v>
+        <v>-9033.1518</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0137</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>17.107</v>
       </c>
       <c r="C6" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D6" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E6" s="1">
-        <v>2471.8752</v>
+        <v>2476.8208</v>
       </c>
       <c r="F6" s="1">
-        <v>509.9481</v>
+        <v>510.9756</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>42286.3682</v>
+        <v>42286.2667</v>
       </c>
       <c r="I6" s="1">
-        <v>2199.2966</v>
+        <v>2043.8064</v>
       </c>
       <c r="J6" s="1">
-        <v>44485.6648</v>
+        <v>44330.0731</v>
       </c>
       <c r="K6" s="1">
-        <v>38676.8174</v>
+        <v>38834.0648</v>
       </c>
       <c r="L6" s="1">
-        <v>15.6468</v>
+        <v>15.679</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8723.6819</v>
+        <v>-8758.7852</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.061</v>
+        <v>0.0603</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>16.8894</v>
       </c>
       <c r="C7" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D7" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E7" s="1">
-        <v>2981.8232</v>
+        <v>2987.7964</v>
       </c>
       <c r="F7" s="1">
-        <v>660.7286</v>
+        <v>662.0381</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>50360.9072</v>
+        <v>50361.1007</v>
       </c>
       <c r="I7" s="1">
-        <v>3475.6147</v>
+        <v>3285.0212</v>
       </c>
       <c r="J7" s="1">
-        <v>53836.5219</v>
+        <v>53646.1219</v>
       </c>
       <c r="K7" s="1">
-        <v>47400.4992</v>
+        <v>47592.8501</v>
       </c>
       <c r="L7" s="1">
-        <v>15.8965</v>
+        <v>15.9291</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2224.6876</v>
+        <v>2229.1387</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8934.6219</v>
+        <v>-8974.6649</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0119</v>
+        <v>-0.0126</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>16.4004</v>
       </c>
       <c r="C8" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D8" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E8" s="1">
-        <v>3642.5518</v>
+        <v>3649.8345</v>
       </c>
       <c r="F8" s="1">
-        <v>755.838</v>
+        <v>757.3695</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>59739.307</v>
+        <v>59739.0314</v>
       </c>
       <c r="I8" s="1">
-        <v>4540.9928</v>
+        <v>4310.3563</v>
       </c>
       <c r="J8" s="1">
-        <v>64280.2998</v>
+        <v>64049.3876</v>
       </c>
       <c r="K8" s="1">
-        <v>58559.8087</v>
+        <v>58796.6537</v>
       </c>
       <c r="L8" s="1">
-        <v>16.0766</v>
+        <v>16.1094</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-12396.0451</v>
+        <v>-12446.0799</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.007</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>15.3877</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E9" s="1">
-        <v>4398.3898</v>
+        <v>4407.204</v>
       </c>
       <c r="F9" s="1">
-        <v>789.2634</v>
+        <v>769.4832</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>67681.10279999999</v>
+        <v>67680.99099999999</v>
       </c>
       <c r="I9" s="1">
-        <v>2144.9477</v>
+        <v>1864.2764</v>
       </c>
       <c r="J9" s="1">
-        <v>69826.0505</v>
+        <v>69545.2674</v>
       </c>
       <c r="K9" s="1">
-        <v>70955.8538</v>
+        <v>71242.73360000001</v>
       </c>
       <c r="L9" s="1">
-        <v>16.1322</v>
+        <v>16.1651</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12144.9477</v>
+        <v>-11864.2764</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.06</v>
+        <v>-0.0608</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>14.6367</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E10" s="1">
-        <v>5187.6532</v>
+        <v>5176.6872</v>
       </c>
       <c r="F10" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>75930.12300000001</v>
+        <v>75617.9402</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>75930.12300000001</v>
+        <v>75617.9402</v>
       </c>
       <c r="K10" s="1">
-        <v>83100.8015</v>
+        <v>83107.00999999999</v>
       </c>
       <c r="L10" s="1">
-        <v>16.019</v>
+        <v>16.0541</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0488</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>13.0061</v>
       </c>
       <c r="C11" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D11" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E11" s="1">
-        <v>5870.8673</v>
+        <v>5858.5363</v>
       </c>
       <c r="F11" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>76357.0868</v>
+        <v>76044.3876</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>76357.0868</v>
+        <v>76044.3876</v>
       </c>
       <c r="K11" s="1">
-        <v>93100.8015</v>
+        <v>93107.00999999999</v>
       </c>
       <c r="L11" s="1">
-        <v>15.8581</v>
+        <v>15.8925</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2334.4439</v>
+        <v>2329.5092</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7665.5561</v>
+        <v>-7670.4908</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.1114</v>
+        <v>-0.1118</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>13.835</v>
       </c>
       <c r="C12" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D12" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E12" s="1">
-        <v>6639.7373</v>
+        <v>6625.8665</v>
       </c>
       <c r="F12" s="1">
-        <v>891.5391</v>
+        <v>889.4017</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>91860.765</v>
+        <v>91485.3265</v>
       </c>
       <c r="I12" s="1">
-        <v>2334.4439</v>
+        <v>2329.5092</v>
       </c>
       <c r="J12" s="1">
-        <v>94195.2089</v>
+        <v>93814.8357</v>
       </c>
       <c r="K12" s="1">
-        <v>103100.8015</v>
+        <v>103107.01</v>
       </c>
       <c r="L12" s="1">
-        <v>15.5278</v>
+        <v>15.5613</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12334.4439</v>
+        <v>-12329.5092</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.09080000000000001</v>
+        <v>0.09030000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>14.4216</v>
       </c>
       <c r="C13" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D13" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E13" s="1">
-        <v>7531.2764</v>
+        <v>7515.2682</v>
       </c>
       <c r="F13" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>108613.0557</v>
+        <v>108165.7524</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108613.0557</v>
+        <v>108165.7524</v>
       </c>
       <c r="K13" s="1">
-        <v>115435.2455</v>
+        <v>115436.5192</v>
       </c>
       <c r="L13" s="1">
-        <v>15.3274</v>
+        <v>15.3603</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>13.2404</v>
       </c>
       <c r="C14" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D14" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E14" s="1">
-        <v>8224.680700000001</v>
+        <v>8207.2858</v>
       </c>
       <c r="F14" s="1">
-        <v>-8224.680700000001</v>
+        <v>-8207.2858</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108898.0628</v>
+        <v>108450.2538</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>108898.0628</v>
+        <v>108450.2538</v>
       </c>
       <c r="K14" s="1">
-        <v>125435.2455</v>
+        <v>125436.5192</v>
       </c>
       <c r="L14" s="1">
-        <v>15.2511</v>
+        <v>15.2836</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>2711.2595</v>
+        <v>2705.4966</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111609.3223</v>
+        <v>111155.7503</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0819</v>
+        <v>-0.0822</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>14.6447</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>15.486</v>
       </c>
       <c r="C3" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D3" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E3" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="F3" s="1">
-        <v>618.3344</v>
+        <v>622.3077</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10574.474</v>
+        <v>10532.2339</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10574.474</v>
+        <v>10532.2339</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9575.526</v>
+        <v>-9656.349200000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0574</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>16.1958</v>
       </c>
       <c r="C4" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D4" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E4" s="1">
-        <v>1301.1753</v>
+        <v>1303.7852</v>
       </c>
       <c r="F4" s="1">
-        <v>579.0923</v>
+        <v>580.2397999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21073.4441</v>
+        <v>21073.6014</v>
       </c>
       <c r="I4" s="1">
-        <v>424.474</v>
+        <v>343.6508</v>
       </c>
       <c r="J4" s="1">
-        <v>21497.9181</v>
+        <v>21417.2522</v>
       </c>
       <c r="K4" s="1">
-        <v>19575.526</v>
+        <v>19656.3492</v>
       </c>
       <c r="L4" s="1">
-        <v>15.0445</v>
+        <v>15.0764</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9378.863799999999</v>
+        <v>-9416.248100000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0449</v>
+        <v>0.0431</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>16.4264</v>
       </c>
       <c r="C5" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D5" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E5" s="1">
-        <v>1880.2676</v>
+        <v>1884.025</v>
       </c>
       <c r="F5" s="1">
-        <v>610.1767</v>
+        <v>611.4021</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30886.0277</v>
+        <v>30885.9526</v>
       </c>
       <c r="I5" s="1">
-        <v>1045.6102</v>
+        <v>927.4027</v>
       </c>
       <c r="J5" s="1">
-        <v>31931.6379</v>
+        <v>31813.3552</v>
       </c>
       <c r="K5" s="1">
-        <v>28954.3898</v>
+        <v>29072.5973</v>
       </c>
       <c r="L5" s="1">
-        <v>15.3991</v>
+        <v>15.4311</v>
       </c>
       <c r="M5" s="1">
         <v>0.75</v>
       </c>
       <c r="N5" s="1">
-        <v>878.2933</v>
+        <v>880.0549999999999</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9144.7127</v>
+        <v>-9183.195299999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0138</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>17.107</v>
       </c>
       <c r="C6" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D6" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E6" s="1">
-        <v>2490.4443</v>
+        <v>2495.4271</v>
       </c>
       <c r="F6" s="1">
-        <v>521.3444</v>
+        <v>522.3948</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>42604.0301</v>
+        <v>42603.9278</v>
       </c>
       <c r="I6" s="1">
-        <v>1900.8975</v>
+        <v>1744.2074</v>
       </c>
       <c r="J6" s="1">
-        <v>44504.9276</v>
+        <v>44348.1352</v>
       </c>
       <c r="K6" s="1">
-        <v>38977.3958</v>
+        <v>39135.8476</v>
       </c>
       <c r="L6" s="1">
-        <v>15.6508</v>
+        <v>15.683</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8918.6391</v>
+        <v>-8954.5255</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0614</v>
+        <v>0.0606</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>16.8894</v>
       </c>
       <c r="C7" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D7" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E7" s="1">
-        <v>3011.7887</v>
+        <v>3017.8219</v>
       </c>
       <c r="F7" s="1">
-        <v>676.6713999999999</v>
+        <v>678.0127</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50867.0029</v>
+        <v>50867.1983</v>
       </c>
       <c r="I7" s="1">
-        <v>2982.2584</v>
+        <v>2789.6819</v>
       </c>
       <c r="J7" s="1">
-        <v>53849.2612</v>
+        <v>53656.8803</v>
       </c>
       <c r="K7" s="1">
-        <v>47896.0349</v>
+        <v>48090.3731</v>
       </c>
       <c r="L7" s="1">
-        <v>15.9029</v>
+        <v>15.9355</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2241.3998</v>
+        <v>2245.8844</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9187.174300000001</v>
+        <v>-9228.260200000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.012</v>
+        <v>-0.0127</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>16.4004</v>
       </c>
       <c r="C8" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D8" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E8" s="1">
-        <v>3688.4601</v>
+        <v>3695.8346</v>
       </c>
       <c r="F8" s="1">
-        <v>776.6713</v>
+        <v>778.2448000000001</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60492.2211</v>
+        <v>60491.942</v>
       </c>
       <c r="I8" s="1">
-        <v>3795.0841</v>
+        <v>3561.4217</v>
       </c>
       <c r="J8" s="1">
-        <v>64287.3052</v>
+        <v>64053.3637</v>
       </c>
       <c r="K8" s="1">
-        <v>59324.609</v>
+        <v>59564.5177</v>
       </c>
       <c r="L8" s="1">
-        <v>16.0838</v>
+        <v>16.1167</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-12737.7208</v>
+        <v>-12789.1306</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0069</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>15.3877</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E9" s="1">
-        <v>4465.1315</v>
+        <v>4474.0794</v>
       </c>
       <c r="F9" s="1">
-        <v>718.5845</v>
+        <v>698.6601000000001</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>68708.1033</v>
+        <v>68707.9899</v>
       </c>
       <c r="I9" s="1">
-        <v>1057.3633</v>
+        <v>772.2911</v>
       </c>
       <c r="J9" s="1">
-        <v>69765.4666</v>
+        <v>69480.281</v>
       </c>
       <c r="K9" s="1">
-        <v>72062.32980000001</v>
+        <v>72353.6483</v>
       </c>
       <c r="L9" s="1">
-        <v>16.1389</v>
+        <v>16.1717</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11057.3633</v>
+        <v>-10772.2911</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0609</v>
+        <v>-0.0618</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>14.6367</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E10" s="1">
-        <v>5183.716</v>
+        <v>5172.7395</v>
       </c>
       <c r="F10" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>75872.49589999999</v>
+        <v>75560.27529999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>75872.49589999999</v>
+        <v>75560.27529999999</v>
       </c>
       <c r="K10" s="1">
-        <v>83119.6931</v>
+        <v>83125.9394</v>
       </c>
       <c r="L10" s="1">
-        <v>16.0348</v>
+        <v>16.07</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0488</v>
+        <v>-0.0493</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>13.0061</v>
       </c>
       <c r="C11" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D11" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E11" s="1">
-        <v>5866.9301</v>
+        <v>5854.5887</v>
       </c>
       <c r="F11" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>76305.8797</v>
+        <v>75993.1467</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>76305.8797</v>
+        <v>75993.1467</v>
       </c>
       <c r="K11" s="1">
-        <v>93119.6931</v>
+        <v>93125.9394</v>
       </c>
       <c r="L11" s="1">
-        <v>15.872</v>
+        <v>15.9065</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2332.6722</v>
+        <v>2327.7328</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7667.3278</v>
+        <v>-7672.2672</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.1114</v>
+        <v>-0.1118</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>13.835</v>
       </c>
       <c r="C12" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D12" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E12" s="1">
-        <v>6635.8001</v>
+        <v>6621.9188</v>
       </c>
       <c r="F12" s="1">
-        <v>891.4111</v>
+        <v>889.2736</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>91806.2944</v>
+        <v>91430.8201</v>
       </c>
       <c r="I12" s="1">
-        <v>2332.6722</v>
+        <v>2327.7328</v>
       </c>
       <c r="J12" s="1">
-        <v>94138.9666</v>
+        <v>93758.5529</v>
       </c>
       <c r="K12" s="1">
-        <v>103119.6931</v>
+        <v>103125.9394</v>
       </c>
       <c r="L12" s="1">
-        <v>15.5399</v>
+        <v>15.5734</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12332.6722</v>
+        <v>-12327.7328</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.09080000000000001</v>
+        <v>0.09030000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>14.4216</v>
       </c>
       <c r="C13" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D13" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E13" s="1">
-        <v>7527.2112</v>
+        <v>7511.1924</v>
       </c>
       <c r="F13" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>108554.4286</v>
+        <v>108107.0903</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108554.4286</v>
+        <v>108107.0903</v>
       </c>
       <c r="K13" s="1">
-        <v>115452.3653</v>
+        <v>115453.6722</v>
       </c>
       <c r="L13" s="1">
-        <v>15.338</v>
+        <v>15.3709</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>13.2404</v>
       </c>
       <c r="C14" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D14" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E14" s="1">
-        <v>8220.6155</v>
+        <v>8203.209999999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8220.6155</v>
+        <v>-8203.209999999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108844.2376</v>
+        <v>108396.3966</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>108844.2376</v>
+        <v>108396.3966</v>
       </c>
       <c r="K14" s="1">
-        <v>125452.3653</v>
+        <v>125453.6722</v>
       </c>
       <c r="L14" s="1">
-        <v>15.2607</v>
+        <v>15.2932</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>2709.796</v>
+        <v>2704.0293</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111554.0336</v>
+        <v>111100.4259</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0819</v>
+        <v>-0.0822</v>
       </c>
     </row>
   </sheetData>
@@ -4452,8 +4452,8 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.2305</v>
+        <v>15.2611</v>
       </c>
       <c r="D3" s="1">
-        <v>15.2324</v>
+        <v>15.2647</v>
       </c>
       <c r="E3" s="1">
-        <v>15.2416</v>
+        <v>15.274</v>
       </c>
       <c r="F3" s="1">
-        <v>15.2511</v>
+        <v>15.2836</v>
       </c>
       <c r="G3" s="1">
-        <v>15.2607</v>
+        <v>15.2932</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0805</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0075</v>
+        <v>-0.0051</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0042</v>
+        <v>-0.008</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0036</v>
+        <v>-0.0086</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0031</v>
+        <v>-0.0092</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0025</v>
+        <v>-0.0098</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1974</v>
       </c>
       <c r="C5" s="3">
+        <v>0.2082</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.209</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.2093</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.2097</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.2103</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.2107</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.211</v>
-      </c>
       <c r="G5" s="3">
-        <v>0.2114</v>
+        <v>0.2101</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.5106000000000001</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.0613</v>
+        <v>-0.1222</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.0767</v>
+        <v>-0.1355</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.07920000000000001</v>
+        <v>-0.1381</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.0818</v>
+        <v>-0.1408</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.0844</v>
+        <v>-0.1435</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1268</v>
+        <v>-0.1335</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1283</v>
+        <v>-0.135</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1287</v>
+        <v>-0.1353</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1291</v>
+        <v>-0.1357</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1294</v>
+        <v>-0.136</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8151.5047</v>
+        <v>8134.9573</v>
       </c>
       <c r="D8" s="1">
-        <v>8115.3201</v>
+        <v>8110.7725</v>
       </c>
       <c r="E8" s="1">
-        <v>8130.891</v>
+        <v>8126.3726</v>
       </c>
       <c r="F8" s="1">
-        <v>8146.505</v>
+        <v>8142.0158</v>
       </c>
       <c r="G8" s="1">
-        <v>8162.1614</v>
+        <v>8157.7014</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P45_KFSDIV.xlsx
+++ b/output/1Y_P45_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6447</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.486</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.1958</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.4264</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>17.107</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.8894</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.4004</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3877</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6367</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0061</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.835</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.4216</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2404</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6447</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.486</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.1958</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.4264</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>17.107</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.8894</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.4004</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3877</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6367</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0061</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.835</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.4216</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2404</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6447</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.486</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.1958</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.4264</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>17.107</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.8894</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.4004</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3877</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6367</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0061</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.835</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.4216</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2404</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6447</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.486</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.1958</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.4264</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>17.107</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.8894</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.4004</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3877</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6367</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0061</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.835</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.4216</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2404</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6447</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.486</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.1958</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.4264</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>17.107</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.8894</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.4004</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3877</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6367</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0061</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.835</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.4216</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2404</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>9629.373299999999</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8662</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.866</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8653</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8648</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8642</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
